--- a/data/trans_dic/P27F_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27F_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba</t>
+          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +638,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,62%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>2,21%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,36</t>
+          <t>2,73; 14,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 8,24</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 5,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 8,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -606,17 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,94%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,99</t>
+          <t>0,0; 6,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,02</t>
+          <t>0,64; 6,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,15</t>
+          <t>0,39; 5,19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 10,1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 8,35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 5,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 6,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 6,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 4,73</t>
         </is>
       </c>
     </row>
@@ -661,12 +858,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,27%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,27%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -679,17 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,84</t>
+          <t>0,41; 4,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,2</t>
+          <t>0,9; 7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,91</t>
+          <t>0,0; 3,51</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 6,14</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 4,8</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 5,57</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 3,98</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 4,64</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 3,38</t>
         </is>
       </c>
     </row>
@@ -706,17 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>4,27%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,04</t>
+          <t>0,92; 10,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,43</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,08</t>
+          <t>0,34; 2,94</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 7,42</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 5,78</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 7,05</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 3,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 2,11</t>
         </is>
       </c>
     </row>
@@ -761,12 +1078,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,23%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>4,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,93</t>
+          <t>2,34; 9,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,34</t>
+          <t>0,48; 4,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,66</t>
+          <t>0,87; 4,97</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 6,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 9,82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 5,55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 6,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 6,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 4,31</t>
         </is>
       </c>
     </row>
@@ -811,12 +1188,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>1,72%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>1,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,82</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 7,47</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 18,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,05</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 4,44</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 10,02</t>
         </is>
       </c>
     </row>
@@ -861,12 +1298,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,27%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>2,73%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1346,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,67</t>
+          <t>1,33; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,55</t>
+          <t>1,43; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,66</t>
+          <t>0,53; 1,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 4,54</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 4,37</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 5,32</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 3,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 3,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 3,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2979</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1353</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1754</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1191; 6376</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>358; 3082</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>674; 4004</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1833; 7274</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11036</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1858</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1674</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13448</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2915</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24484</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3180</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>306; 3301</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2235; 29646</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>596; 4768</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>540; 3800</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4969; 28799</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1190; 6055</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1312; 6044</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11112; 50877</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18160</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2578</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2834</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24189</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>244; 2610</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>550; 4360</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23831</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>711; 3284</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>476; 2631</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7890; 39846</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1385; 4530</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1271; 5362</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11814; 47191</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7168</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2238</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5954</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13121</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>532; 6255</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1812</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2213; 19282</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1106; 3889</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>678; 3082</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1696; 15471</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2297; 7758</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1021; 3826</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5028; 27737</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2234</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10907</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13403</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24309</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1036; 4236</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>215; 2066</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4297; 24606</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>663; 3119</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1470; 4580</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4580; 28694</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2338; 6288</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1959; 5591</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12688; 43611</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>40630</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40630</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1238</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>321; 2993</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>720; 4719</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6564; 132683</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>354; 3318</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>852; 4843</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6434; 128508</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6591</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7174</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35139</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9843</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9651</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>91594</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>16434</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>16826</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>126733</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4001; 11570</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4298; 11566</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18005; 60133</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6947; 13673</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6501; 13192</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53639; 191355</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12192; 21395</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12251; 22195</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>82368; 219549</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>